--- a/docs/tijd.xlsx
+++ b/docs/tijd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\School\UHasselt\2025-2026\S1\SE\project-gamepulse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED93778F-C0E9-4544-8F07-5817CE204538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D506C93-F094-4CA9-B34F-698ECA53CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6B4679D-B392-4FC0-965D-A28F042598EB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>naam</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Use cases uitschrijven</t>
+  </si>
+  <si>
+    <t>Fully dressed use case uitschrijven</t>
   </si>
 </sst>
 </file>
@@ -658,8 +661,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:D19" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:D21" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{61178741-6BA1-4A62-8AEB-A91D0A96D52A}" name="naam"/>
     <tableColumn id="2" xr3:uid="{D85AACB9-F156-4D91-B154-43442669B9B9}" name="datum" dataDxfId="1"/>
@@ -987,17 +990,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAE773D-C7E5-4BFA-811F-DACC195C7653}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,6 +1267,34 @@
       </c>
       <c r="D19" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tijd.xlsx
+++ b/docs/tijd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\School\UHasselt\2025-2026\S1\SE\project-gamepulse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mane\OneDrive - Miniemeninstituut\Bureaublad\UCLL 2022-2025\3SD\3SD S2\Bachelor Project\SecondGearGamePulse\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D506C93-F094-4CA9-B34F-698ECA53CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EFE6FC-7A32-4B5C-BB81-3220FCD44158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6B4679D-B392-4FC0-965D-A28F042598EB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>naam</t>
   </si>
@@ -71,12 +71,27 @@
   </si>
   <si>
     <t>Fully dressed use case uitschrijven</t>
+  </si>
+  <si>
+    <t>Fully dressed use case administrator</t>
+  </si>
+  <si>
+    <t>Fully dressed use case moderatie gebruikers rapport</t>
+  </si>
+  <si>
+    <t>Verder werken fully dressed use cases + meeting</t>
+  </si>
+  <si>
+    <t>Fully dressed use case moderator aanstellen community</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,13 +578,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -596,31 +612,31 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -661,8 +677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:D21" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:D28" xr:uid="{AA7181F0-7BD3-4A68-B320-1962BCC788DC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{61178741-6BA1-4A62-8AEB-A91D0A96D52A}" name="naam"/>
     <tableColumn id="2" xr3:uid="{D85AACB9-F156-4D91-B154-43442669B9B9}" name="datum" dataDxfId="1"/>
@@ -674,7 +690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -990,17 +1006,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAE773D-C7E5-4BFA-811F-DACC195C7653}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,6 +1311,104 @@
       </c>
       <c r="D21" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45977</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45977</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45978</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45979</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45979</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45979</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
